--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.6771675</v>
+        <v>58.5237865</v>
       </c>
       <c r="H2">
-        <v>93.35433499999999</v>
+        <v>117.047573</v>
       </c>
       <c r="I2">
-        <v>0.4898929723558808</v>
+        <v>0.9267085491139034</v>
       </c>
       <c r="J2">
-        <v>0.3939504270570364</v>
+        <v>0.9111602159194784</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.437025499999999</v>
+        <v>33.9967575</v>
       </c>
       <c r="N2">
-        <v>10.874051</v>
+        <v>67.993515</v>
       </c>
       <c r="O2">
-        <v>0.0412690981875492</v>
+        <v>0.1734871988362492</v>
       </c>
       <c r="P2">
-        <v>0.0335329617600088</v>
+        <v>0.156567042520821</v>
       </c>
       <c r="Q2">
-        <v>253.7849499652712</v>
+        <v>1989.618977622274</v>
       </c>
       <c r="R2">
-        <v>1015.139799861085</v>
+        <v>7958.475910489095</v>
       </c>
       <c r="S2">
-        <v>0.02021744117754517</v>
+        <v>0.1607720703233757</v>
       </c>
       <c r="T2">
-        <v>0.01321032460584274</v>
+        <v>0.1426576602691454</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.6771675</v>
+        <v>58.5237865</v>
       </c>
       <c r="H3">
-        <v>93.35433499999999</v>
+        <v>117.047573</v>
       </c>
       <c r="I3">
-        <v>0.4898929723558808</v>
+        <v>0.9267085491139034</v>
       </c>
       <c r="J3">
-        <v>0.3939504270570364</v>
+        <v>0.9111602159194784</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.07421266666667</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N3">
         <v>126.222638</v>
       </c>
       <c r="O3">
-        <v>0.3193593286815545</v>
+        <v>0.2147068672293418</v>
       </c>
       <c r="P3">
-        <v>0.3892403018250912</v>
+        <v>0.2906498528695889</v>
       </c>
       <c r="Q3">
-        <v>1963.905072072622</v>
+        <v>2462.342239259595</v>
       </c>
       <c r="R3">
-        <v>11783.43043243573</v>
+        <v>14774.05343555757</v>
       </c>
       <c r="S3">
-        <v>0.1564518907773854</v>
+        <v>0.1989706894148949</v>
       </c>
       <c r="T3">
-        <v>0.1533413831318044</v>
+        <v>0.2648285826976193</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.6771675</v>
+        <v>58.5237865</v>
       </c>
       <c r="H4">
-        <v>93.35433499999999</v>
+        <v>117.047573</v>
       </c>
       <c r="I4">
-        <v>0.4898929723558808</v>
+        <v>0.9267085491139034</v>
       </c>
       <c r="J4">
-        <v>0.3939504270570364</v>
+        <v>0.9111602159194784</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.01285266666666667</v>
+        <v>0.1097226666666667</v>
       </c>
       <c r="N4">
-        <v>0.038558</v>
+        <v>0.329168</v>
       </c>
       <c r="O4">
-        <v>9.755664427884464E-05</v>
+        <v>0.0005599204009042182</v>
       </c>
       <c r="P4">
-        <v>0.0001189036118685133</v>
+        <v>0.0007579672892700664</v>
       </c>
       <c r="Q4">
-        <v>0.5999260748216665</v>
+        <v>6.421385918210667</v>
       </c>
       <c r="R4">
-        <v>3.599556448929999</v>
+        <v>38.528315509264</v>
       </c>
       <c r="S4">
-        <v>4.779231443882853E-05</v>
+        <v>0.0005188830223412232</v>
       </c>
       <c r="T4">
-        <v>4.684212867422493E-05</v>
+        <v>0.0006906296389512154</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.6771675</v>
+        <v>58.5237865</v>
       </c>
       <c r="H5">
-        <v>93.35433499999999</v>
+        <v>117.047573</v>
       </c>
       <c r="I5">
-        <v>0.4898929723558808</v>
+        <v>0.9267085491139034</v>
       </c>
       <c r="J5">
-        <v>0.3939504270570364</v>
+        <v>0.9111602159194784</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.52055350000001</v>
+        <v>119.609489</v>
       </c>
       <c r="N5">
-        <v>131.041107</v>
+        <v>239.218978</v>
       </c>
       <c r="O5">
-        <v>0.4973260021852153</v>
+        <v>0.6103733628374751</v>
       </c>
       <c r="P5">
-        <v>0.4040993030123017</v>
+        <v>0.5508438253311854</v>
       </c>
       <c r="Q5">
-        <v>3058.313850412211</v>
+        <v>7000.000197610098</v>
       </c>
       <c r="R5">
-        <v>12233.25540164884</v>
+        <v>28000.00079044039</v>
       </c>
       <c r="S5">
-        <v>0.2436365134403824</v>
+        <v>0.5656382134928907</v>
       </c>
       <c r="T5">
-        <v>0.159195092995147</v>
+        <v>0.5019069788266743</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,108 +791,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.6771675</v>
+        <v>58.5237865</v>
       </c>
       <c r="H6">
-        <v>93.35433499999999</v>
+        <v>117.047573</v>
       </c>
       <c r="I6">
-        <v>0.4898929723558808</v>
+        <v>0.9267085491139034</v>
       </c>
       <c r="J6">
-        <v>0.3939504270570364</v>
+        <v>0.9111602159194784</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>18.57371366666667</v>
+        <v>0.1710056666666666</v>
       </c>
       <c r="N6">
-        <v>55.721141</v>
+        <v>0.5130169999999999</v>
       </c>
       <c r="O6">
-        <v>0.1409815740273963</v>
+        <v>0.0008726506960296239</v>
       </c>
       <c r="P6">
-        <v>0.1718306167937836</v>
+        <v>0.001181311989134611</v>
       </c>
       <c r="Q6">
-        <v>866.9683439160391</v>
+        <v>10.00789912629016</v>
       </c>
       <c r="R6">
-        <v>5201.810063496235</v>
+        <v>60.047394757741</v>
       </c>
       <c r="S6">
-        <v>0.0690658823476918</v>
+        <v>0.0008086928604008508</v>
       </c>
       <c r="T6">
-        <v>0.067692744867385</v>
+        <v>0.00107636448708816</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>46.6771675</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H7">
-        <v>93.35433499999999</v>
+        <v>0.117076</v>
       </c>
       <c r="I7">
-        <v>0.4898929723558808</v>
+        <v>0.0006179557440634808</v>
       </c>
       <c r="J7">
-        <v>0.3939504270570364</v>
+        <v>0.0009113815067228165</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1273243333333333</v>
+        <v>33.9967575</v>
       </c>
       <c r="N7">
-        <v>0.381973</v>
+        <v>67.993515</v>
       </c>
       <c r="O7">
-        <v>0.0009664402740059944</v>
+        <v>0.1734871988362492</v>
       </c>
       <c r="P7">
-        <v>0.001177912996946202</v>
+        <v>0.156567042520821</v>
       </c>
       <c r="Q7">
-        <v>5.943139233825834</v>
+        <v>1.32673479369</v>
       </c>
       <c r="R7">
-        <v>35.658835402955</v>
+        <v>7.960408762140001</v>
       </c>
       <c r="S7">
-        <v>0.0004734522984372284</v>
+        <v>0.0001072074110423434</v>
       </c>
       <c r="T7">
-        <v>0.0004640393281829898</v>
+        <v>0.0001426923071157611</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,46 +915,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.03902533333333333</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H8">
         <v>0.117076</v>
       </c>
       <c r="I8">
-        <v>0.0004095843335790609</v>
+        <v>0.0006179557440634808</v>
       </c>
       <c r="J8">
-        <v>0.0004940546167259356</v>
+        <v>0.0009113815067228165</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.437025499999999</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N8">
-        <v>10.874051</v>
+        <v>126.222638</v>
       </c>
       <c r="O8">
-        <v>0.0412690981875492</v>
+        <v>0.2147068672293418</v>
       </c>
       <c r="P8">
-        <v>0.0335329617600088</v>
+        <v>0.2906498528695889</v>
       </c>
       <c r="Q8">
-        <v>0.2121817324793333</v>
+        <v>1.641960174054222</v>
       </c>
       <c r="R8">
-        <v>1.273090394876</v>
+        <v>14.777641566488</v>
       </c>
       <c r="S8">
-        <v>1.690317607855617E-05</v>
+        <v>0.0001326793418942469</v>
       </c>
       <c r="T8">
-        <v>1.65671145700266E-05</v>
+        <v>0.0002648929008370509</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,46 +977,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.03902533333333333</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H9">
         <v>0.117076</v>
       </c>
       <c r="I9">
-        <v>0.0004095843335790609</v>
+        <v>0.0006179557440634808</v>
       </c>
       <c r="J9">
-        <v>0.0004940546167259356</v>
+        <v>0.0009113815067228165</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>42.07421266666667</v>
+        <v>0.1097226666666667</v>
       </c>
       <c r="N9">
-        <v>126.222638</v>
+        <v>0.329168</v>
       </c>
       <c r="O9">
-        <v>0.3193593286815545</v>
+        <v>0.0005599204009042182</v>
       </c>
       <c r="P9">
-        <v>0.3892403018250912</v>
+        <v>0.0007579672892700664</v>
       </c>
       <c r="Q9">
-        <v>1.641960174054222</v>
+        <v>0.004281963640888889</v>
       </c>
       <c r="R9">
-        <v>14.777641566488</v>
+        <v>0.03853767276800001</v>
       </c>
       <c r="S9">
-        <v>0.0001308045778102908</v>
+        <v>3.460060279570886E-07</v>
       </c>
       <c r="T9">
-        <v>0.0001923059681324829</v>
+        <v>6.90797370141562E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,46 +1039,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.03902533333333333</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H10">
         <v>0.117076</v>
       </c>
       <c r="I10">
-        <v>0.0004095843335790609</v>
+        <v>0.0006179557440634808</v>
       </c>
       <c r="J10">
-        <v>0.0004940546167259356</v>
+        <v>0.0009113815067228165</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01285266666666667</v>
+        <v>119.609489</v>
       </c>
       <c r="N10">
-        <v>0.038558</v>
+        <v>239.218978</v>
       </c>
       <c r="O10">
-        <v>9.755664427884464E-05</v>
+        <v>0.6103733628374751</v>
       </c>
       <c r="P10">
-        <v>0.0001189036118685133</v>
+        <v>0.5508438253311854</v>
       </c>
       <c r="Q10">
-        <v>0.0005015796008888887</v>
+        <v>4.667800178054667</v>
       </c>
       <c r="R10">
-        <v>0.004514216407999999</v>
+        <v>28.006801068328</v>
       </c>
       <c r="S10">
-        <v>3.995767313316008E-08</v>
+        <v>0.0003771837255887609</v>
       </c>
       <c r="T10">
-        <v>5.874487838902776E-08</v>
+        <v>0.0005020288754992957</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,51 +1101,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.03902533333333333</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H11">
         <v>0.117076</v>
       </c>
       <c r="I11">
-        <v>0.0004095843335790609</v>
+        <v>0.0006179557440634808</v>
       </c>
       <c r="J11">
-        <v>0.0004940546167259356</v>
+        <v>0.0009113815067228165</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>65.52055350000001</v>
+        <v>0.1710056666666666</v>
       </c>
       <c r="N11">
-        <v>131.041107</v>
+        <v>0.5130169999999999</v>
       </c>
       <c r="O11">
-        <v>0.4973260021852153</v>
+        <v>0.0008726506960296239</v>
       </c>
       <c r="P11">
-        <v>0.4040993030123017</v>
+        <v>0.001181311989134611</v>
       </c>
       <c r="Q11">
-        <v>2.556961440522</v>
+        <v>0.006673553143555555</v>
       </c>
       <c r="R11">
-        <v>15.341768643132</v>
+        <v>0.060061978292</v>
       </c>
       <c r="S11">
-        <v>0.00020369693917657</v>
+        <v>5.392595101725006E-07</v>
       </c>
       <c r="T11">
-        <v>0.0001996471262689604</v>
+        <v>1.076625900567229E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,117 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.03902533333333333</v>
+        <v>0.4240023333333334</v>
       </c>
       <c r="H12">
-        <v>0.117076</v>
+        <v>1.272007</v>
       </c>
       <c r="I12">
-        <v>0.0004095843335790609</v>
+        <v>0.006713963853727117</v>
       </c>
       <c r="J12">
-        <v>0.0004940546167259356</v>
+        <v>0.009901975265827067</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.57371366666667</v>
+        <v>33.9967575</v>
       </c>
       <c r="N12">
-        <v>55.721141</v>
+        <v>67.993515</v>
       </c>
       <c r="O12">
-        <v>0.1409815740273963</v>
+        <v>0.1734871988362492</v>
       </c>
       <c r="P12">
-        <v>0.1718306167937836</v>
+        <v>0.156567042520821</v>
       </c>
       <c r="Q12">
-        <v>0.7248453670795555</v>
+        <v>14.4147045057675</v>
       </c>
       <c r="R12">
-        <v>6.523608303715999</v>
+        <v>86.488227034605</v>
       </c>
       <c r="S12">
-        <v>5.774384404493814E-05</v>
+        <v>0.001164786782070946</v>
       </c>
       <c r="T12">
-        <v>8.489370952183384E-05</v>
+        <v>0.001550322982484864</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.03902533333333333</v>
+        <v>0.4240023333333334</v>
       </c>
       <c r="H13">
-        <v>0.117076</v>
+        <v>1.272007</v>
       </c>
       <c r="I13">
-        <v>0.0004095843335790609</v>
+        <v>0.006713963853727117</v>
       </c>
       <c r="J13">
-        <v>0.0004940546167259356</v>
+        <v>0.009901975265827067</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1273243333333333</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N13">
-        <v>0.381973</v>
+        <v>126.222638</v>
       </c>
       <c r="O13">
-        <v>0.0009664402740059944</v>
+        <v>0.2147068672293418</v>
       </c>
       <c r="P13">
-        <v>0.001177912996946202</v>
+        <v>0.2906498528695889</v>
       </c>
       <c r="Q13">
-        <v>0.004968874549777778</v>
+        <v>17.83956434382955</v>
       </c>
       <c r="R13">
-        <v>0.04471987094799999</v>
+        <v>160.556079094466</v>
       </c>
       <c r="S13">
-        <v>3.958387955727102E-07</v>
+        <v>0.001441534145724788</v>
       </c>
       <c r="T13">
-        <v>5.819533542427539E-07</v>
+        <v>0.002878007654130946</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.214287333333333</v>
+        <v>0.4240023333333334</v>
       </c>
       <c r="H14">
-        <v>12.642862</v>
+        <v>1.272007</v>
       </c>
       <c r="I14">
-        <v>0.04423039911512208</v>
+        <v>0.006713963853727117</v>
       </c>
       <c r="J14">
-        <v>0.0533522185565692</v>
+        <v>0.009901975265827067</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>5.437025499999999</v>
+        <v>0.1097226666666667</v>
       </c>
       <c r="N14">
-        <v>10.874051</v>
+        <v>0.329168</v>
       </c>
       <c r="O14">
-        <v>0.0412690981875492</v>
+        <v>0.0005599204009042182</v>
       </c>
       <c r="P14">
-        <v>0.0335329617600088</v>
+        <v>0.0007579672892700664</v>
       </c>
       <c r="Q14">
-        <v>22.91318769566033</v>
+        <v>0.04652266668622223</v>
       </c>
       <c r="R14">
-        <v>137.479126173962</v>
+        <v>0.4187040001760001</v>
       </c>
       <c r="S14">
-        <v>0.001825348683956463</v>
+        <v>3.759285332635317E-06</v>
       </c>
       <c r="T14">
-        <v>0.001789057904669067</v>
+        <v>7.505373350658187E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.214287333333333</v>
+        <v>0.4240023333333334</v>
       </c>
       <c r="H15">
-        <v>12.642862</v>
+        <v>1.272007</v>
       </c>
       <c r="I15">
-        <v>0.04423039911512208</v>
+        <v>0.006713963853727117</v>
       </c>
       <c r="J15">
-        <v>0.0533522185565692</v>
+        <v>0.009901975265827067</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>42.07421266666667</v>
+        <v>119.609489</v>
       </c>
       <c r="N15">
-        <v>126.222638</v>
+        <v>239.218978</v>
       </c>
       <c r="O15">
-        <v>0.3193593286815545</v>
+        <v>0.6103733628374751</v>
       </c>
       <c r="P15">
-        <v>0.3892403018250912</v>
+        <v>0.5508438253311854</v>
       </c>
       <c r="Q15">
-        <v>177.3128215011062</v>
+        <v>50.71470242480767</v>
       </c>
       <c r="R15">
-        <v>1595.815393509956</v>
+        <v>304.288214548846</v>
       </c>
       <c r="S15">
-        <v>0.01412539056872261</v>
+        <v>0.004098024695368674</v>
       </c>
       <c r="T15">
-        <v>0.02076683365399723</v>
+        <v>0.005454441933762963</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.214287333333333</v>
+        <v>0.4240023333333334</v>
       </c>
       <c r="H16">
-        <v>12.642862</v>
+        <v>1.272007</v>
       </c>
       <c r="I16">
-        <v>0.04423039911512208</v>
+        <v>0.006713963853727117</v>
       </c>
       <c r="J16">
-        <v>0.0533522185565692</v>
+        <v>0.009901975265827067</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,33 +1429,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01285266666666667</v>
+        <v>0.1710056666666666</v>
       </c>
       <c r="N16">
-        <v>0.038558</v>
+        <v>0.5130169999999999</v>
       </c>
       <c r="O16">
-        <v>9.755664427884464E-05</v>
+        <v>0.0008726506960296239</v>
       </c>
       <c r="P16">
-        <v>0.0001189036118685133</v>
+        <v>0.001181311989134611</v>
       </c>
       <c r="Q16">
-        <v>0.05416483033288888</v>
+        <v>0.07250680167988888</v>
       </c>
       <c r="R16">
-        <v>0.4874834729959999</v>
+        <v>0.652561215119</v>
       </c>
       <c r="S16">
-        <v>4.31496931278529E-06</v>
+        <v>5.858945230072704E-06</v>
       </c>
       <c r="T16">
-        <v>6.3437714875744E-06</v>
+        <v>1.169732209763589E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.214287333333333</v>
+        <v>2.4732215</v>
       </c>
       <c r="H17">
-        <v>12.642862</v>
+        <v>4.946443</v>
       </c>
       <c r="I17">
-        <v>0.04423039911512208</v>
+        <v>0.03916280276742367</v>
       </c>
       <c r="J17">
-        <v>0.0533522185565692</v>
+        <v>0.03850572853751861</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.52055350000001</v>
+        <v>33.9967575</v>
       </c>
       <c r="N17">
-        <v>131.041107</v>
+        <v>67.993515</v>
       </c>
       <c r="O17">
-        <v>0.4973260021852153</v>
+        <v>0.1734871988362492</v>
       </c>
       <c r="P17">
-        <v>0.4040993030123017</v>
+        <v>0.156567042520821</v>
       </c>
       <c r="Q17">
-        <v>276.122438688039</v>
+        <v>84.08151157928626</v>
       </c>
       <c r="R17">
-        <v>1656.734632128234</v>
+        <v>336.326046317145</v>
       </c>
       <c r="S17">
-        <v>0.02199692756698015</v>
+        <v>0.006794244950696839</v>
       </c>
       <c r="T17">
-        <v>0.0215595943328696</v>
+        <v>0.006028728037228866</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.214287333333333</v>
+        <v>2.4732215</v>
       </c>
       <c r="H18">
-        <v>12.642862</v>
+        <v>4.946443</v>
       </c>
       <c r="I18">
-        <v>0.04423039911512208</v>
+        <v>0.03916280276742367</v>
       </c>
       <c r="J18">
-        <v>0.0533522185565692</v>
+        <v>0.03850572853751861</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,90 +1553,90 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.57371366666667</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N18">
-        <v>55.721141</v>
+        <v>126.222638</v>
       </c>
       <c r="O18">
-        <v>0.1409815740273963</v>
+        <v>0.2147068672293418</v>
       </c>
       <c r="P18">
-        <v>0.1718306167937836</v>
+        <v>0.2906498528695889</v>
       </c>
       <c r="Q18">
-        <v>78.27496623839355</v>
+        <v>104.0588473627723</v>
       </c>
       <c r="R18">
-        <v>704.474696145542</v>
+        <v>624.353084176634</v>
       </c>
       <c r="S18">
-        <v>0.006235671287109867</v>
+        <v>0.008408522694114136</v>
       </c>
       <c r="T18">
-        <v>0.009167544621892031</v>
+        <v>0.01119168433406612</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.214287333333333</v>
+        <v>2.4732215</v>
       </c>
       <c r="H19">
-        <v>12.642862</v>
+        <v>4.946443</v>
       </c>
       <c r="I19">
-        <v>0.04423039911512208</v>
+        <v>0.03916280276742367</v>
       </c>
       <c r="J19">
-        <v>0.0533522185565692</v>
+        <v>0.03850572853751861</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1273243333333333</v>
+        <v>0.1097226666666667</v>
       </c>
       <c r="N19">
-        <v>0.381973</v>
+        <v>0.329168</v>
       </c>
       <c r="O19">
-        <v>0.0009664402740059944</v>
+        <v>0.0005599204009042182</v>
       </c>
       <c r="P19">
-        <v>0.001177912996946202</v>
+        <v>0.0007579672892700664</v>
       </c>
       <c r="Q19">
-        <v>0.5365813251917778</v>
+        <v>0.2713684582373334</v>
       </c>
       <c r="R19">
-        <v>4.829231926726</v>
+        <v>1.628210749424</v>
       </c>
       <c r="S19">
-        <v>4.274603904021308E-05</v>
+        <v>2.192805222606869E-05</v>
       </c>
       <c r="T19">
-        <v>6.28442716536972E-05</v>
+        <v>2.918608268095202E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.1940915</v>
+        <v>2.4732215</v>
       </c>
       <c r="H20">
-        <v>4.388183</v>
+        <v>4.946443</v>
       </c>
       <c r="I20">
-        <v>0.02302774705761169</v>
+        <v>0.03916280276742367</v>
       </c>
       <c r="J20">
-        <v>0.01851790350019019</v>
+        <v>0.03850572853751861</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.437025499999999</v>
+        <v>119.609489</v>
       </c>
       <c r="N20">
-        <v>10.874051</v>
+        <v>239.218978</v>
       </c>
       <c r="O20">
-        <v>0.0412690981875492</v>
+        <v>0.6103733628374751</v>
       </c>
       <c r="P20">
-        <v>0.0335329617600088</v>
+        <v>0.5508438253311854</v>
       </c>
       <c r="Q20">
-        <v>11.92933143483325</v>
+        <v>295.8207597988135</v>
       </c>
       <c r="R20">
-        <v>47.71732573933298</v>
+        <v>1183.283039195254</v>
       </c>
       <c r="S20">
-        <v>0.000950334354358624</v>
+        <v>0.02390393162329316</v>
       </c>
       <c r="T20">
-        <v>0.0006209601499474107</v>
+        <v>0.02121064280477094</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.1940915</v>
+        <v>2.4732215</v>
       </c>
       <c r="H21">
-        <v>4.388183</v>
+        <v>4.946443</v>
       </c>
       <c r="I21">
-        <v>0.02302774705761169</v>
+        <v>0.03916280276742367</v>
       </c>
       <c r="J21">
-        <v>0.01851790350019019</v>
+        <v>0.03850572853751861</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>42.07421266666667</v>
+        <v>0.1710056666666666</v>
       </c>
       <c r="N21">
-        <v>126.222638</v>
+        <v>0.5130169999999999</v>
       </c>
       <c r="O21">
-        <v>0.3193593286815545</v>
+        <v>0.0008726506960296239</v>
       </c>
       <c r="P21">
-        <v>0.3892403018250912</v>
+        <v>0.001181311989134611</v>
       </c>
       <c r="Q21">
-        <v>92.31467238112566</v>
+        <v>0.4229348914218333</v>
       </c>
       <c r="R21">
-        <v>553.888034286754</v>
+        <v>2.537609348531</v>
       </c>
       <c r="S21">
-        <v>0.007354125841367511</v>
+        <v>3.417544709346315E-05</v>
       </c>
       <c r="T21">
-        <v>0.007207914347581941</v>
+        <v>4.548727877173345E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.1940915</v>
+        <v>0.5517673333333334</v>
       </c>
       <c r="H22">
-        <v>4.388183</v>
+        <v>1.655302</v>
       </c>
       <c r="I22">
-        <v>0.02302774705761169</v>
+        <v>0.008737088549828895</v>
       </c>
       <c r="J22">
-        <v>0.01851790350019019</v>
+        <v>0.01288574627456773</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.01285266666666667</v>
+        <v>33.9967575</v>
       </c>
       <c r="N22">
-        <v>0.038558</v>
+        <v>67.993515</v>
       </c>
       <c r="O22">
-        <v>9.755664427884464E-05</v>
+        <v>0.1734871988362492</v>
       </c>
       <c r="P22">
-        <v>0.0001189036118685133</v>
+        <v>0.156567042520821</v>
       </c>
       <c r="Q22">
-        <v>0.02819992668566666</v>
+        <v>18.758300227755</v>
       </c>
       <c r="R22">
-        <v>0.169199560114</v>
+        <v>112.54980136653</v>
       </c>
       <c r="S22">
-        <v>2.246509728242635E-06</v>
+        <v>0.001515773018494081</v>
       </c>
       <c r="T22">
-        <v>2.201845610405199E-06</v>
+        <v>0.002017483184882756</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.1940915</v>
+        <v>0.5517673333333334</v>
       </c>
       <c r="H23">
-        <v>4.388183</v>
+        <v>1.655302</v>
       </c>
       <c r="I23">
-        <v>0.02302774705761169</v>
+        <v>0.008737088549828895</v>
       </c>
       <c r="J23">
-        <v>0.01851790350019019</v>
+        <v>0.01288574627456773</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>65.52055350000001</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N23">
-        <v>131.041107</v>
+        <v>126.222638</v>
       </c>
       <c r="O23">
-        <v>0.4973260021852153</v>
+        <v>0.2147068672293418</v>
       </c>
       <c r="P23">
-        <v>0.4040993030123017</v>
+        <v>0.2906498528695889</v>
       </c>
       <c r="Q23">
-        <v>143.7580895096453</v>
+        <v>23.21517612518622</v>
       </c>
       <c r="R23">
-        <v>575.032358038581</v>
+        <v>208.936585126676</v>
       </c>
       <c r="S23">
-        <v>0.01145229738349438</v>
+        <v>0.001875912911239115</v>
       </c>
       <c r="T23">
-        <v>0.007483071897675917</v>
+        <v>0.003745240258817965</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,117 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.1940915</v>
+        <v>0.5517673333333334</v>
       </c>
       <c r="H24">
-        <v>4.388183</v>
+        <v>1.655302</v>
       </c>
       <c r="I24">
-        <v>0.02302774705761169</v>
+        <v>0.008737088549828895</v>
       </c>
       <c r="J24">
-        <v>0.01851790350019019</v>
+        <v>0.01288574627456773</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>18.57371366666667</v>
+        <v>0.1097226666666667</v>
       </c>
       <c r="N24">
-        <v>55.721141</v>
+        <v>0.329168</v>
       </c>
       <c r="O24">
-        <v>0.1409815740273963</v>
+        <v>0.0005599204009042182</v>
       </c>
       <c r="P24">
-        <v>0.1718306167937836</v>
+        <v>0.0007579672892700664</v>
       </c>
       <c r="Q24">
-        <v>40.75242727946716</v>
+        <v>0.0605413831928889</v>
       </c>
       <c r="R24">
-        <v>244.514563676803</v>
+        <v>0.544872448736</v>
       </c>
       <c r="S24">
-        <v>0.003246488026486839</v>
+        <v>4.89207412355585E-06</v>
       </c>
       <c r="T24">
-        <v>0.003181942780165443</v>
+        <v>9.76697417395596E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.1940915</v>
+        <v>0.5517673333333334</v>
       </c>
       <c r="H25">
-        <v>4.388183</v>
+        <v>1.655302</v>
       </c>
       <c r="I25">
-        <v>0.02302774705761169</v>
+        <v>0.008737088549828895</v>
       </c>
       <c r="J25">
-        <v>0.01851790350019019</v>
+        <v>0.01288574627456773</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1273243333333333</v>
+        <v>119.609489</v>
       </c>
       <c r="N25">
-        <v>0.381973</v>
+        <v>239.218978</v>
       </c>
       <c r="O25">
-        <v>0.0009664402740059944</v>
+        <v>0.6103733628374751</v>
       </c>
       <c r="P25">
-        <v>0.001177912996946202</v>
+        <v>0.5508438253311854</v>
       </c>
       <c r="Q25">
-        <v>0.2793612375098333</v>
+        <v>65.99660878689266</v>
       </c>
       <c r="R25">
-        <v>1.676167425059</v>
+        <v>395.979652721356</v>
       </c>
       <c r="S25">
-        <v>2.225494217609897E-05</v>
+        <v>0.005332886119567861</v>
       </c>
       <c r="T25">
-        <v>2.181247920906959E-05</v>
+        <v>0.00709803377012996</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>36.230025</v>
+        <v>0.5517673333333334</v>
       </c>
       <c r="H26">
-        <v>108.690075</v>
+        <v>1.655302</v>
       </c>
       <c r="I26">
-        <v>0.3802466084896404</v>
+        <v>0.008737088549828895</v>
       </c>
       <c r="J26">
-        <v>0.4586664503915251</v>
+        <v>0.01288574627456773</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>5.437025499999999</v>
+        <v>0.1710056666666666</v>
       </c>
       <c r="N26">
-        <v>10.874051</v>
+        <v>0.5130169999999999</v>
       </c>
       <c r="O26">
-        <v>0.0412690981875492</v>
+        <v>0.0008726506960296239</v>
       </c>
       <c r="P26">
-        <v>0.0335329617600088</v>
+        <v>0.001181311989134611</v>
       </c>
       <c r="Q26">
-        <v>196.9835697906375</v>
+        <v>0.09435534068155554</v>
       </c>
       <c r="R26">
-        <v>1181.901418743825</v>
+        <v>0.849198066134</v>
       </c>
       <c r="S26">
-        <v>0.01569243462124155</v>
+        <v>7.624426404280642E-06</v>
       </c>
       <c r="T26">
-        <v>0.01538044454157798</v>
+        <v>1.522208656309351E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>36.230025</v>
+        <v>1.140508</v>
       </c>
       <c r="H27">
-        <v>108.690075</v>
+        <v>3.421524</v>
       </c>
       <c r="I27">
-        <v>0.3802466084896404</v>
+        <v>0.01805963997105348</v>
       </c>
       <c r="J27">
-        <v>0.4586664503915251</v>
+        <v>0.02663495249588539</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>42.07421266666667</v>
+        <v>33.9967575</v>
       </c>
       <c r="N27">
-        <v>126.222638</v>
+        <v>67.993515</v>
       </c>
       <c r="O27">
-        <v>0.3193593286815545</v>
+        <v>0.1734871988362492</v>
       </c>
       <c r="P27">
-        <v>0.3892403018250912</v>
+        <v>0.156567042520821</v>
       </c>
       <c r="Q27">
-        <v>1524.34977676865</v>
+        <v>38.77357390281001</v>
       </c>
       <c r="R27">
-        <v>13719.14799091785</v>
+        <v>232.64144341686</v>
       </c>
       <c r="S27">
-        <v>0.1214353016206895</v>
+        <v>0.003133116350569227</v>
       </c>
       <c r="T27">
-        <v>0.1785314675874404</v>
+        <v>0.004170155739963335</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>36.230025</v>
+        <v>1.140508</v>
       </c>
       <c r="H28">
-        <v>108.690075</v>
+        <v>3.421524</v>
       </c>
       <c r="I28">
-        <v>0.3802466084896404</v>
+        <v>0.01805963997105348</v>
       </c>
       <c r="J28">
-        <v>0.4586664503915251</v>
+        <v>0.02663495249588539</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.01285266666666667</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N28">
-        <v>0.038558</v>
+        <v>126.222638</v>
       </c>
       <c r="O28">
-        <v>9.755664427884464E-05</v>
+        <v>0.2147068672293418</v>
       </c>
       <c r="P28">
-        <v>0.0001189036118685133</v>
+        <v>0.2906498528695889</v>
       </c>
       <c r="Q28">
-        <v>0.4656524346499999</v>
+        <v>47.98597614003467</v>
       </c>
       <c r="R28">
-        <v>4.19087191185</v>
+        <v>431.873785260312</v>
       </c>
       <c r="S28">
-        <v>3.709558312266096E-05</v>
+        <v>0.003877528721474694</v>
       </c>
       <c r="T28">
-        <v>5.453709759446263E-05</v>
+        <v>0.00774144502411758</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>36.230025</v>
+        <v>1.140508</v>
       </c>
       <c r="H29">
-        <v>108.690075</v>
+        <v>3.421524</v>
       </c>
       <c r="I29">
-        <v>0.3802466084896404</v>
+        <v>0.01805963997105348</v>
       </c>
       <c r="J29">
-        <v>0.4586664503915251</v>
+        <v>0.02663495249588539</v>
       </c>
       <c r="K29">
         <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>65.52055350000001</v>
+        <v>0.1097226666666667</v>
       </c>
       <c r="N29">
-        <v>131.041107</v>
+        <v>0.329168</v>
       </c>
       <c r="O29">
-        <v>0.4973260021852153</v>
+        <v>0.0005599204009042182</v>
       </c>
       <c r="P29">
-        <v>0.4040993030123017</v>
+        <v>0.0007579672892700664</v>
       </c>
       <c r="Q29">
-        <v>2373.811291318837</v>
+        <v>0.1251395791146667</v>
       </c>
       <c r="R29">
-        <v>14242.86774791303</v>
+        <v>1.126256212032</v>
       </c>
       <c r="S29">
-        <v>0.1891065256446396</v>
+        <v>1.011196085277811E-05</v>
       </c>
       <c r="T29">
-        <v>0.1853467929183418</v>
+        <v>2.018842274314324E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,60 +2279,60 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>36.230025</v>
+        <v>1.140508</v>
       </c>
       <c r="H30">
-        <v>108.690075</v>
+        <v>3.421524</v>
       </c>
       <c r="I30">
-        <v>0.3802466084896404</v>
+        <v>0.01805963997105348</v>
       </c>
       <c r="J30">
-        <v>0.4586664503915251</v>
+        <v>0.02663495249588539</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>18.57371366666667</v>
+        <v>119.609489</v>
       </c>
       <c r="N30">
-        <v>55.721141</v>
+        <v>239.218978</v>
       </c>
       <c r="O30">
-        <v>0.1409815740273963</v>
+        <v>0.6103733628374751</v>
       </c>
       <c r="P30">
-        <v>0.1718306167937836</v>
+        <v>0.5508438253311854</v>
       </c>
       <c r="Q30">
-        <v>672.9261104861749</v>
+        <v>136.415579080412</v>
       </c>
       <c r="R30">
-        <v>6056.334994375575</v>
+        <v>818.493474482472</v>
       </c>
       <c r="S30">
-        <v>0.05360776538344861</v>
+        <v>0.01102312318076599</v>
       </c>
       <c r="T30">
-        <v>0.07881293907339108</v>
+        <v>0.01467169912034791</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>36.230025</v>
+        <v>1.140508</v>
       </c>
       <c r="H31">
-        <v>108.690075</v>
+        <v>3.421524</v>
       </c>
       <c r="I31">
-        <v>0.3802466084896404</v>
+        <v>0.01805963997105348</v>
       </c>
       <c r="J31">
-        <v>0.4586664503915251</v>
+        <v>0.02663495249588539</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,400 +2359,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.1273243333333333</v>
+        <v>0.1710056666666666</v>
       </c>
       <c r="N31">
-        <v>0.381973</v>
+        <v>0.5130169999999999</v>
       </c>
       <c r="O31">
-        <v>0.0009664402740059944</v>
+        <v>0.0008726506960296239</v>
       </c>
       <c r="P31">
-        <v>0.001177912996946202</v>
+        <v>0.001181311989134611</v>
       </c>
       <c r="Q31">
-        <v>4.612963779775</v>
+        <v>0.1950333308786666</v>
       </c>
       <c r="R31">
-        <v>41.516674017975</v>
+        <v>1.755299977908</v>
       </c>
       <c r="S31">
-        <v>0.0003674856364985782</v>
+        <v>1.575975739078423E-05</v>
       </c>
       <c r="T31">
-        <v>0.0005402691731793578</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>5.925740333333334</v>
-      </c>
-      <c r="H32">
-        <v>17.777221</v>
-      </c>
-      <c r="I32">
-        <v>0.06219268864816604</v>
-      </c>
-      <c r="J32">
-        <v>0.07501894587795324</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>5.437025499999999</v>
-      </c>
-      <c r="N32">
-        <v>10.874051</v>
-      </c>
-      <c r="O32">
-        <v>0.0412690981875492</v>
-      </c>
-      <c r="P32">
-        <v>0.0335329617600088</v>
-      </c>
-      <c r="Q32">
-        <v>32.21840129871183</v>
-      </c>
-      <c r="R32">
-        <v>193.310407792271</v>
-      </c>
-      <c r="S32">
-        <v>0.002566636174368841</v>
-      </c>
-      <c r="T32">
-        <v>0.002515607443401576</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>5.925740333333334</v>
-      </c>
-      <c r="H33">
-        <v>17.777221</v>
-      </c>
-      <c r="I33">
-        <v>0.06219268864816604</v>
-      </c>
-      <c r="J33">
-        <v>0.07501894587795324</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>42.07421266666667</v>
-      </c>
-      <c r="N33">
-        <v>126.222638</v>
-      </c>
-      <c r="O33">
-        <v>0.3193593286815545</v>
-      </c>
-      <c r="P33">
-        <v>0.3892403018250912</v>
-      </c>
-      <c r="Q33">
-        <v>249.3208589921109</v>
-      </c>
-      <c r="R33">
-        <v>2243.887730928998</v>
-      </c>
-      <c r="S33">
-        <v>0.01986181529557924</v>
-      </c>
-      <c r="T33">
-        <v>0.0292003971361347</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>5.925740333333334</v>
-      </c>
-      <c r="H34">
-        <v>17.777221</v>
-      </c>
-      <c r="I34">
-        <v>0.06219268864816604</v>
-      </c>
-      <c r="J34">
-        <v>0.07501894587795324</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.01285266666666667</v>
-      </c>
-      <c r="N34">
-        <v>0.038558</v>
-      </c>
-      <c r="O34">
-        <v>9.755664427884464E-05</v>
-      </c>
-      <c r="P34">
-        <v>0.0001189036118685133</v>
-      </c>
-      <c r="Q34">
-        <v>0.07616156525755555</v>
-      </c>
-      <c r="R34">
-        <v>0.6854540873179999</v>
-      </c>
-      <c r="S34">
-        <v>6.067310003194073E-06</v>
-      </c>
-      <c r="T34">
-        <v>8.920023623457161E-06</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>5.925740333333334</v>
-      </c>
-      <c r="H35">
-        <v>17.777221</v>
-      </c>
-      <c r="I35">
-        <v>0.06219268864816604</v>
-      </c>
-      <c r="J35">
-        <v>0.07501894587795324</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>65.52055350000001</v>
-      </c>
-      <c r="N35">
-        <v>131.041107</v>
-      </c>
-      <c r="O35">
-        <v>0.4973260021852153</v>
-      </c>
-      <c r="P35">
-        <v>0.4040993030123017</v>
-      </c>
-      <c r="Q35">
-        <v>388.2577865372746</v>
-      </c>
-      <c r="R35">
-        <v>2329.546719223647</v>
-      </c>
-      <c r="S35">
-        <v>0.03093004121054223</v>
-      </c>
-      <c r="T35">
-        <v>0.03031510374199849</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>5.925740333333334</v>
-      </c>
-      <c r="H36">
-        <v>17.777221</v>
-      </c>
-      <c r="I36">
-        <v>0.06219268864816604</v>
-      </c>
-      <c r="J36">
-        <v>0.07501894587795324</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>18.57371366666667</v>
-      </c>
-      <c r="N36">
-        <v>55.721141</v>
-      </c>
-      <c r="O36">
-        <v>0.1409815740273963</v>
-      </c>
-      <c r="P36">
-        <v>0.1718306167937836</v>
-      </c>
-      <c r="Q36">
-        <v>110.0630042143512</v>
-      </c>
-      <c r="R36">
-        <v>990.5670379291611</v>
-      </c>
-      <c r="S36">
-        <v>0.008768023138614229</v>
-      </c>
-      <c r="T36">
-        <v>0.01289055174142817</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>5.925740333333334</v>
-      </c>
-      <c r="H37">
-        <v>17.777221</v>
-      </c>
-      <c r="I37">
-        <v>0.06219268864816604</v>
-      </c>
-      <c r="J37">
-        <v>0.07501894587795324</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M37">
-        <v>0.1273243333333333</v>
-      </c>
-      <c r="N37">
-        <v>0.381973</v>
-      </c>
-      <c r="O37">
-        <v>0.0009664402740059944</v>
-      </c>
-      <c r="P37">
-        <v>0.001177912996946202</v>
-      </c>
-      <c r="Q37">
-        <v>0.7544909374481112</v>
-      </c>
-      <c r="R37">
-        <v>6.790418437033001</v>
-      </c>
-      <c r="S37">
-        <v>6.010551905830308E-05</v>
-      </c>
-      <c r="T37">
-        <v>8.836579136684483E-05</v>
+        <v>3.146418871342024E-05</v>
       </c>
     </row>
   </sheetData>
